--- a/src/test/resources/MiCollabTestData.xlsx
+++ b/src/test/resources/MiCollabTestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehmet\IdeaProjects\miCollabWeb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48F6DED-5022-4E1E-A817-C11DEFC91564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050BA97-6246-4394-982E-FE6AF09ED6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="5490" windowWidth="28800" windowHeight="15435" xr2:uid="{0B859B5B-27CB-184D-A670-5CE0833DF2CB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5480" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5425" uniqueCount="6">
   <si>
     <t>SN</t>
   </si>
@@ -44,93 +44,11 @@
   <si>
     <t/>
   </si>
-  <si>
-    <t>07526537662</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>00:04</t>
-  </si>
-  <si>
-    <t>11 Ju 2021</t>
-  </si>
-  <si>
-    <t>9:34 AM</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9:23 AM</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>00:06</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>00:05</t>
-  </si>
-  <si>
-    <t>9:20 AM</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10 Ju 2021</t>
-  </si>
-  <si>
-    <t>1:43 PM</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>00:11</t>
-  </si>
-  <si>
-    <t>1:00 PM</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>00:12</t>
-  </si>
-  <si>
-    <t>0:59 PM</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>00:33</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Missed Call</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -478,14 +396,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C1778E-A402-0141-99EE-0C219108867A}">
   <dimension ref="A1:E1085"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="1" max="1" width="5.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -507,189 +423,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/MiCollabTestData.xlsx
+++ b/src/test/resources/MiCollabTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehmet\IdeaProjects\miCollabWeb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050BA97-6246-4394-982E-FE6AF09ED6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6508C0A-B540-4FC5-AAA0-27B5894CBC92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="5490" windowWidth="28800" windowHeight="15435" xr2:uid="{0B859B5B-27CB-184D-A670-5CE0833DF2CB}"/>
   </bookViews>
